--- a/DOCS/Power_thermal.xlsx
+++ b/DOCS/Power_thermal.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="389" documentId="13_ncr:1_{84C8D3AB-9142-4DFA-8D3B-2F53EB8D9942}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{AE9FFADB-83E2-44B4-A2F1-30A17EF075D5}"/>
+  <xr:revisionPtr revIDLastSave="389" documentId="13_ncr:1_{84C8D3AB-9142-4DFA-8D3B-2F53EB8D9942}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{AE9FFADB-83E2-44B4-A2F1-30A17EF075D5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="594" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="594" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -1055,12 +1055,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,13 +1064,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1086,62 +1074,24 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2955,7 +2905,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2993,7 +2943,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="620973488"/>
@@ -3096,7 +3046,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3134,7 +3084,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="620975456"/>
@@ -3176,7 +3126,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3213,7 +3163,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4895,7 +4845,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4933,7 +4883,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="613192760"/>
@@ -5036,7 +4986,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lv-LV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5074,7 +5024,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lv-LV"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="613191776"/>
@@ -5116,7 +5066,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lv-LV"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5153,7 +5103,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lv-LV"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6338,15 +6288,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4289982-0E27-465B-BE48-0931B45020E5}" name="IXTK60N50L2" displayName="IXTK60N50L2" ref="I2:L40" tableType="queryTable" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4289982-0E27-465B-BE48-0931B45020E5}" name="IXTK60N50L2" displayName="IXTK60N50L2" ref="I2:L40" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="I2:L40" xr:uid="{7803580B-4CA0-4BE6-986A-8A66C4F02812}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FF23D3E5-6E69-473F-8C66-EC88ED76831C}" uniqueName="1" name="VDS" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{D900BF4E-38EF-47D3-A544-8D07886B5360}" uniqueName="2" name="ID" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{A3F498C6-3A44-4F16-ADD1-D951D3C67966}" uniqueName="3" name="P" queryTableFieldId="3" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{FF23D3E5-6E69-473F-8C66-EC88ED76831C}" uniqueName="1" name="VDS" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D900BF4E-38EF-47D3-A544-8D07886B5360}" uniqueName="2" name="ID" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A3F498C6-3A44-4F16-ADD1-D951D3C67966}" uniqueName="3" name="P" queryTableFieldId="3" dataDxfId="1">
       <calculatedColumnFormula>IXTK60N50L2[[#This Row],[ID]]*IXTK60N50L2[[#This Row],[VDS]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{83CF9A01-695C-4F3B-84A3-B4EF08F04E97}" uniqueName="4" name="R" queryTableFieldId="4" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{83CF9A01-695C-4F3B-84A3-B4EF08F04E97}" uniqueName="4" name="R" queryTableFieldId="4" dataDxfId="0">
       <calculatedColumnFormula>IXTK60N50L2[[#This Row],[VDS]]/IXTK60N50L2[[#This Row],[ID]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6623,61 +6573,61 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="8" width="9.7109375" style="1"/>
-    <col min="9" max="10" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.7109375" style="1"/>
+    <col min="1" max="8" width="9.73046875" style="1"/>
+    <col min="9" max="10" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="Q1" s="18" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="Q1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="Y1" s="18" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="Y1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AG1" s="18" t="s">
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AG1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AO1" s="18" t="s">
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AO1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+    </row>
+    <row r="2" spans="1:47" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -6796,7 +6746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>0.5</v>
       </c>
@@ -6824,10 +6774,10 @@
         <v>19</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="24">
+      <c r="I3" s="21">
         <v>10</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="21">
         <v>42.340946623038278</v>
       </c>
       <c r="K3" s="2">
@@ -6947,7 +6897,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -6975,10 +6925,10 @@
         <v>30</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="24">
+      <c r="I4" s="21">
         <v>11.337222110373594</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="21">
         <v>46.074054643460492</v>
       </c>
       <c r="K4" s="2">
@@ -7098,7 +7048,7 @@
         <v>42.950176125198531</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>1.5</v>
       </c>
@@ -7126,10 +7076,10 @@
         <v>33</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="24">
+      <c r="I5" s="21">
         <v>12.903670133433213</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="21">
         <v>44.351950751877808</v>
       </c>
       <c r="K5" s="2">
@@ -7249,7 +7199,7 @@
         <v>28.633450750132354</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -7277,10 +7227,10 @@
         <v>36</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="24">
+      <c r="I6" s="21">
         <v>14.686552075230503</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="21">
         <v>38.620024230057048</v>
       </c>
       <c r="K6" s="2">
@@ -7400,7 +7350,7 @@
         <v>21.475088062599266</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>2.5</v>
       </c>
@@ -7428,10 +7378,10 @@
         <v>36.227303794369945</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="24">
+      <c r="I7" s="21">
         <v>16.715772305709788</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="21">
         <v>33.668932604971978</v>
       </c>
       <c r="K7" s="2">
@@ -7551,7 +7501,7 @@
         <v>17.180070450079413</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -7579,10 +7529,10 @@
         <v>30.189419828641618</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="24">
+      <c r="I8" s="21">
         <v>19.025367039523395</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="21">
         <v>29.352571505532445</v>
       </c>
       <c r="K8" s="2">
@@ -7702,7 +7652,7 @@
         <v>14.316725375066177</v>
       </c>
     </row>
-    <row r="9" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -7730,10 +7680,10 @@
         <v>22.642064871481214</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="24">
+      <c r="I9" s="21">
         <v>21.654075227199822</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="21">
         <v>25.597185091400483</v>
       </c>
       <c r="K9" s="2">
@@ -7853,7 +7803,7 @@
         <v>12.271478892913866</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -7881,10 +7831,10 @@
         <v>18.113651897184972</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="24">
+      <c r="I10" s="21">
         <v>24.645988325541154</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="21">
         <v>22.322265171210606</v>
       </c>
       <c r="K10" s="2">
@@ -8004,7 +7954,7 @@
         <v>10.737544031299633</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -8032,10 +7982,10 @@
         <v>15.094709914320809</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="24">
+      <c r="I11" s="21">
         <v>28.051289845881762</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="21">
         <v>19.454757492123196</v>
       </c>
       <c r="K11" s="2">
@@ -8155,7 +8105,7 @@
         <v>9.5444835833774508</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -8183,10 +8133,10 @@
         <v>12.938322783703551</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="24">
+      <c r="I12" s="21">
         <v>31.927097084689244</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="21">
         <v>16.960655305300982</v>
       </c>
       <c r="K12" s="2">
@@ -8306,7 +8256,7 @@
         <v>8.5900352250397063</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -8334,10 +8284,10 @@
         <v>11.321032435740607</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="24">
+      <c r="I13" s="21">
         <v>36.338419154897529</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="21">
         <v>14.786297310655391</v>
       </c>
       <c r="K13" s="2">
@@ -8457,7 +8407,7 @@
         <v>4.2950176125198531</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -8485,10 +8435,10 @@
         <v>10.063139942880539</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="24">
+      <c r="I14" s="21">
         <v>41.359247387081268</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="21">
         <v>12.894529155852153</v>
       </c>
       <c r="K14" s="2">
@@ -8608,7 +8558,7 @@
         <v>3.3038597019383484</v>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -8636,10 +8586,10 @@
         <v>9.0568259485924862</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="24">
+      <c r="I15" s="21">
         <v>47.073796389825709</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="21">
         <v>11.189824203748982</v>
       </c>
       <c r="K15" s="2">
@@ -8733,7 +8683,7 @@
         <v>2.3216311419026234</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>20</v>
       </c>
@@ -8761,10 +8711,10 @@
         <v>4.5284129742962431</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="24">
+      <c r="I16" s="21">
         <v>53.577916585661193</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="21">
         <v>9.8261886467551438</v>
       </c>
       <c r="K16" s="2">
@@ -8811,7 +8761,7 @@
         <v>1.7180070450079412</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>30</v>
       </c>
@@ -8839,10 +8789,10 @@
         <v>3.0189419828641619</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="24">
+      <c r="I17" s="21">
         <v>60.980701915099992</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="21">
         <v>8.7814034333494462</v>
       </c>
       <c r="K17" s="2">
@@ -8863,7 +8813,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>40</v>
       </c>
@@ -8891,10 +8841,10 @@
         <v>2.2642064871481216</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="24">
+      <c r="I18" s="21">
         <v>69.406319674876713</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="21">
         <v>7.4827826186355644</v>
       </c>
       <c r="K18" s="2">
@@ -8915,7 +8865,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>50</v>
       </c>
@@ -8943,10 +8893,10 @@
         <v>1.811365189718497</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="24">
+      <c r="I19" s="21">
         <v>78.996093182363609</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="21">
         <v>6.4975258482511826</v>
       </c>
       <c r="K19" s="2">
@@ -8967,7 +8917,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>60</v>
       </c>
@@ -8995,10 +8945,10 @@
         <v>1.509470991432081</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="24">
+      <c r="I20" s="21">
         <v>89.910872198796781</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="21">
         <v>5.6645422742529776</v>
       </c>
       <c r="K20" s="2">
@@ -9019,7 +8969,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>70</v>
       </c>
@@ -9047,10 +8997,10 @@
         <v>1.2938322783703551</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="24">
+      <c r="I21" s="21">
         <v>102.24776647907055</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="21">
         <v>4.9122961832697047</v>
       </c>
       <c r="K21" s="2">
@@ -9071,7 +9021,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>80</v>
       </c>
@@ -9099,10 +9049,10 @@
         <v>1.1321032435740608</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="24">
+      <c r="I22" s="21">
         <v>116.47303844111686</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="21">
         <v>4.3078138723067116</v>
       </c>
       <c r="K22" s="2">
@@ -9123,7 +9073,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>90</v>
       </c>
@@ -9151,10 +9101,10 @@
         <v>1.0063139942880539</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="24">
+      <c r="I23" s="21">
         <v>132.56595423914948</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="21">
         <v>3.7555516298350025</v>
       </c>
       <c r="K23" s="2">
@@ -9175,7 +9125,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>100</v>
       </c>
@@ -9203,10 +9153,10 @@
         <v>0.90568259485924851</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="24">
+      <c r="I24" s="21">
         <v>150.88240556393404</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="21">
         <v>3.2740894714664051</v>
       </c>
       <c r="K24" s="2">
@@ -9227,7 +9177,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>200</v>
       </c>
@@ -9255,10 +9205,10 @@
         <v>0.45284129742962426</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="24">
+      <c r="I25" s="21">
         <v>171.72961518981279</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="21">
         <v>2.8552004103332136</v>
       </c>
       <c r="K25" s="2">
@@ -9279,7 +9229,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>300</v>
       </c>
@@ -9307,10 +9257,10 @@
         <v>0.30189419828641617</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="24">
+      <c r="I26" s="21">
         <v>195.45725442947543</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="21">
         <v>2.4891633836516447</v>
       </c>
       <c r="K26" s="2">
@@ -9331,7 +9281,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>400</v>
       </c>
@@ -9359,10 +9309,10 @@
         <v>0.22642064871481213</v>
       </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="24">
+      <c r="I27" s="21">
         <v>222.46330818876166</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="21">
         <v>2.1700523466193422</v>
       </c>
       <c r="K27" s="2">
@@ -9383,7 +9333,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>500</v>
       </c>
@@ -9411,10 +9361,10 @@
         <v>0.18113651897184971</v>
       </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="24">
+      <c r="I28" s="21">
         <v>253.20075038782852</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="21">
         <v>1.8879143284421604</v>
       </c>
       <c r="K28" s="2">
@@ -9435,7 +9385,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>600</v>
       </c>
@@ -9463,10 +9413,10 @@
         <v>0.15094709914320809</v>
       </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="24">
+      <c r="I29" s="21">
         <v>288.18514171586895</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="21">
         <v>1.6288287231732785</v>
       </c>
       <c r="K29" s="2">
@@ -9487,7 +9437,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>650</v>
       </c>
@@ -9515,10 +9465,10 @@
         <v>0.13933578382449976</v>
       </c>
       <c r="H30" s="2"/>
-      <c r="I30" s="24">
+      <c r="I30" s="21">
         <v>328.00327715690662</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="21">
         <v>1.4040443061740879</v>
       </c>
       <c r="K30" s="2">
@@ -9539,11 +9489,11 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:45" ht="15" x14ac:dyDescent="0.25">
-      <c r="I31" s="24">
+    <row r="31" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="I31" s="21">
         <v>373.32302833205455</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="21">
         <v>1.1810330321045945</v>
       </c>
       <c r="K31" s="2">
@@ -9555,7 +9505,7 @@
         <v>316.09871881973947</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -9575,10 +9525,10 @@
         <f t="shared" ref="F32:F33" si="25">F33+$D$36*D32</f>
         <v>125</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="21">
         <v>403.4878297671961</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="21">
         <v>1.0912684077570403</v>
       </c>
       <c r="K32" s="2">
@@ -9650,7 +9600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -9672,10 +9622,10 @@
         <f t="shared" si="25"/>
         <v>114.13180886168902</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="21">
         <v>404.46350428265237</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="21">
         <v>0.76555074380390942</v>
       </c>
       <c r="K33" s="2">
@@ -9755,7 +9705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
@@ -9777,10 +9727,10 @@
         <f>F35+$D$36*D34</f>
         <v>61.634860962056607</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="21">
         <v>404.46350428265237</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="21">
         <v>0.5888131545411629</v>
       </c>
       <c r="K34" s="2">
@@ -9860,7 +9810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -9881,10 +9831,10 @@
       <c r="F35" s="2">
         <v>25</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="21">
         <v>404.46350428265237</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="21">
         <v>0.45287779257846456</v>
       </c>
       <c r="K35" s="2">
@@ -9964,7 +9914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -9982,10 +9932,10 @@
       <c r="E36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="21">
         <v>404.46350428265237</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="21">
         <v>0.34832492010231447</v>
       </c>
       <c r="K36" s="2">
@@ -10065,11 +10015,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:45" ht="15" x14ac:dyDescent="0.25">
-      <c r="I37" s="24">
+    <row r="37" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="I37" s="21">
         <v>404.46350428265237</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="21">
         <v>0.26790947128029607</v>
       </c>
       <c r="K37" s="2">
@@ -10085,7 +10035,7 @@
         <v>5.1540211350238306E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -10095,10 +10045,10 @@
       <c r="C38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="21">
         <v>404.46350428265237</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="21">
         <v>0.20605900025931193</v>
       </c>
       <c r="K38" s="2">
@@ -10110,7 +10060,7 @@
         <v>1962.8528905491205</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -10120,10 +10070,10 @@
       <c r="C39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="21">
         <v>404.46350428265237</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="21">
         <v>0.15848753455768561</v>
       </c>
       <c r="K39" s="2">
@@ -10135,7 +10085,7 @@
         <v>2552.0209233580922</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -10145,10 +10095,10 @@
       <c r="C40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="21">
         <v>403.96527941484601</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="21">
         <v>0.11556795843393974</v>
       </c>
       <c r="K40" s="2">
@@ -10160,7 +10110,7 @@
         <v>3495.4782007831191</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
@@ -10171,7 +10121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
@@ -10210,55 +10160,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349132C3-0375-448C-93F6-8D3A5D340CE8}">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="9.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="10" width="9.7109375" style="1"/>
-    <col min="11" max="11" width="27.7109375" style="1" customWidth="1"/>
-    <col min="12" max="15" width="9.7109375" style="1"/>
-    <col min="16" max="16" width="27.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.7109375" style="1"/>
+    <col min="1" max="3" width="9.73046875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" style="1"/>
+    <col min="5" max="5" width="9.73046875" style="1" customWidth="1"/>
+    <col min="6" max="10" width="9.73046875" style="1"/>
+    <col min="11" max="11" width="27.73046875" style="1" customWidth="1"/>
+    <col min="12" max="15" width="9.73046875" style="1"/>
+    <col min="16" max="16" width="27.73046875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="P1" s="23" t="s">
+      <c r="I1" s="28"/>
+      <c r="P1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-    </row>
-    <row r="2" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+    </row>
+    <row r="2" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -10305,7 +10255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7">
         <v>0.25</v>
       </c>
@@ -10318,7 +10268,7 @@
         <v>0.25</v>
       </c>
       <c r="D3" s="7">
-        <f>MIN($B3,$R$5/$A3)</f>
+        <f t="shared" ref="D3:D34" si="0">MIN($B3,$R$5/$A3)</f>
         <v>1</v>
       </c>
       <c r="E3" s="8">
@@ -10326,19 +10276,19 @@
         <v>0.25</v>
       </c>
       <c r="F3" s="7">
-        <f>MIN($B3,$R$13/$A3)</f>
+        <f t="shared" ref="F3:F34" si="1">MIN($B3,$R$13/$A3)</f>
         <v>1</v>
       </c>
       <c r="G3" s="8">
-        <f>MIN(C3,$R$13)</f>
+        <f t="shared" ref="G3:G34" si="2">MIN(C3,$R$13)</f>
         <v>0.25</v>
       </c>
       <c r="H3" s="7">
-        <f>MIN($B3,$R$20/$A3)</f>
+        <f t="shared" ref="H3:H34" si="3">MIN($B3,$R$20/$A3)</f>
         <v>1</v>
       </c>
       <c r="I3" s="8">
-        <f>MIN(C3,$R$20)</f>
+        <f t="shared" ref="I3:I34" si="4">MIN(C3,$R$20)</f>
         <v>0.25</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -10367,43 +10317,43 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>0.5</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B41" si="0">A4/0.25</f>
+        <f t="shared" ref="B4:B41" si="5">A4/0.25</f>
         <v>2</v>
       </c>
       <c r="C4" s="8">
-        <f t="shared" ref="C4:C66" si="1">A4*B4</f>
+        <f t="shared" ref="C4:C66" si="6">A4*B4</f>
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <f>MIN($B4,$R$5/$A4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E67" si="2">MIN(C4,$R$5)</f>
+        <f t="shared" ref="E4:E67" si="7">MIN(C4,$R$5)</f>
         <v>1</v>
       </c>
       <c r="F4" s="7">
-        <f>MIN($B4,$R$13/$A4)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G4" s="8">
-        <f>MIN(C4,$R$13)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H4" s="7">
-        <f>MIN($B4,$R$20/$A4)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I4" s="8">
-        <f>MIN(C4,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="18" t="s">
         <v>50</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -10429,40 +10379,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>0.75</v>
       </c>
       <c r="B5" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" si="6"/>
+        <v>2.25</v>
+      </c>
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="E5" s="8">
+        <f t="shared" si="7"/>
+        <v>2.25</v>
+      </c>
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
-        <v>2.25</v>
-      </c>
-      <c r="D5" s="7">
-        <f>MIN($B5,$R$5/$A5)</f>
         <v>3</v>
       </c>
-      <c r="E5" s="8">
+      <c r="G5" s="8">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
-      <c r="F5" s="7">
-        <f>MIN($B5,$R$13/$A5)</f>
+      <c r="H5" s="7">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G5" s="8">
-        <f>MIN(C5,$R$13)</f>
-        <v>2.25</v>
-      </c>
-      <c r="H5" s="7">
-        <f>MIN($B5,$R$20/$A5)</f>
-        <v>3</v>
-      </c>
       <c r="I5" s="8">
-        <f>MIN(C5,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -10479,46 +10429,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>1</v>
       </c>
       <c r="B6" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="E6" s="8">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D6" s="7">
-        <f>MIN($B6,$R$5/$A6)</f>
-        <v>4</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="G6" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F6" s="7">
-        <f>MIN($B6,$R$13/$A6)</f>
+      <c r="H6" s="7">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G6" s="8">
-        <f>MIN(C6,$R$13)</f>
-        <v>4</v>
-      </c>
-      <c r="H6" s="7">
-        <f>MIN($B6,$R$20/$A6)</f>
-        <v>4</v>
-      </c>
       <c r="I6" s="8">
-        <f>MIN(C6,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="19">
         <f>(20*17)/25.4^2</f>
         <v>0.52700105400210806</v>
       </c>
@@ -10539,46 +10489,46 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>1.25</v>
       </c>
       <c r="B7" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="6"/>
+        <v>6.25</v>
+      </c>
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="E7" s="8">
+        <f t="shared" si="7"/>
+        <v>6.25</v>
+      </c>
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>6.25</v>
-      </c>
-      <c r="D7" s="7">
-        <f>MIN($B7,$R$5/$A7)</f>
         <v>5</v>
       </c>
-      <c r="E7" s="8">
+      <c r="G7" s="8">
         <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
-      <c r="F7" s="7">
-        <f>MIN($B7,$R$13/$A7)</f>
+      <c r="H7" s="7">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G7" s="8">
-        <f>MIN(C7,$R$13)</f>
-        <v>6.25</v>
-      </c>
-      <c r="H7" s="7">
-        <f>MIN($B7,$R$20/$A7)</f>
-        <v>5</v>
-      </c>
       <c r="I7" s="8">
-        <f>MIN(C7,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>6.25</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="19">
         <f>(17*14)/25.4^2</f>
         <v>0.36890073780147564</v>
       </c>
@@ -10587,87 +10537,87 @@
       </c>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>1.5</v>
       </c>
       <c r="B8" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="E8" s="8">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D8" s="7">
-        <f>MIN($B8,$R$5/$A8)</f>
         <v>6</v>
       </c>
-      <c r="E8" s="8">
+      <c r="G8" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F8" s="7">
-        <f>MIN($B8,$R$13/$A8)</f>
+      <c r="H8" s="7">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G8" s="8">
-        <f>MIN(C8,$R$13)</f>
+      <c r="I8" s="8">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="H8" s="7">
-        <f>MIN($B8,$R$20/$A8)</f>
-        <v>6</v>
-      </c>
-      <c r="I8" s="8">
-        <f>MIN(C8,$R$20)</f>
-        <v>9</v>
-      </c>
-      <c r="M8" s="21"/>
-      <c r="P8" s="23" t="s">
+      <c r="M8" s="19"/>
+      <c r="P8" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-    </row>
-    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+    </row>
+    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>1.75</v>
       </c>
       <c r="B9" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="6"/>
+        <v>12.25</v>
+      </c>
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="E9" s="8">
+        <f t="shared" si="7"/>
+        <v>12.25</v>
+      </c>
+      <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>12.25</v>
-      </c>
-      <c r="D9" s="7">
-        <f>MIN($B9,$R$5/$A9)</f>
         <v>7</v>
       </c>
-      <c r="E9" s="8">
+      <c r="G9" s="8">
         <f t="shared" si="2"/>
         <v>12.25</v>
       </c>
-      <c r="F9" s="7">
-        <f>MIN($B9,$R$13/$A9)</f>
+      <c r="H9" s="7">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G9" s="8">
-        <f>MIN(C9,$R$13)</f>
+      <c r="I9" s="8">
+        <f t="shared" si="4"/>
         <v>12.25</v>
       </c>
-      <c r="H9" s="7">
-        <f>MIN($B9,$R$20/$A9)</f>
-        <v>7</v>
-      </c>
-      <c r="I9" s="8">
-        <f>MIN(C9,$R$20)</f>
-        <v>12.25</v>
-      </c>
-      <c r="M9" s="21"/>
+      <c r="M9" s="19"/>
       <c r="P9" s="1" t="s">
         <v>53</v>
       </c>
@@ -10682,46 +10632,46 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>2</v>
       </c>
       <c r="B10" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="E10" s="8">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="D10" s="7">
-        <f>MIN($B10,$R$5/$A10)</f>
         <v>8</v>
       </c>
-      <c r="E10" s="8">
+      <c r="G10" s="8">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F10" s="7">
-        <f>MIN($B10,$R$13/$A10)</f>
+      <c r="H10" s="7">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G10" s="8">
-        <f>MIN(C10,$R$13)</f>
-        <v>16</v>
-      </c>
-      <c r="H10" s="7">
-        <f>MIN($B10,$R$20/$A10)</f>
-        <v>8</v>
-      </c>
       <c r="I10" s="8">
-        <f>MIN(C10,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="19">
         <v>0.16</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -10741,40 +10691,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>2.25</v>
       </c>
       <c r="B11" s="2">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="6"/>
+        <v>20.25</v>
+      </c>
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="8">
+      <c r="E11" s="8">
+        <f t="shared" si="7"/>
+        <v>20.25</v>
+      </c>
+      <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>20.25</v>
-      </c>
-      <c r="D11" s="7">
-        <f>MIN($B11,$R$5/$A11)</f>
         <v>9</v>
       </c>
-      <c r="E11" s="8">
+      <c r="G11" s="8">
         <f t="shared" si="2"/>
         <v>20.25</v>
       </c>
-      <c r="F11" s="7">
-        <f>MIN($B11,$R$13/$A11)</f>
+      <c r="H11" s="7">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G11" s="8">
-        <f>MIN(C11,$R$13)</f>
-        <v>20.25</v>
-      </c>
-      <c r="H11" s="7">
-        <f>MIN($B11,$R$20/$A11)</f>
-        <v>9</v>
-      </c>
       <c r="I11" s="8">
-        <f>MIN(C11,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>20.25</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -10783,7 +10733,7 @@
       <c r="L11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="19">
         <f>M10/M6</f>
         <v>0.30360470588235289</v>
       </c>
@@ -10804,40 +10754,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>2.5</v>
       </c>
       <c r="B12" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="8">
+      <c r="E12" s="8">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D12" s="7">
-        <f>MIN($B12,$R$5/$A12)</f>
         <v>10</v>
       </c>
-      <c r="E12" s="8">
+      <c r="G12" s="8">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="F12" s="7">
-        <f>MIN($B12,$R$13/$A12)</f>
+      <c r="H12" s="7">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G12" s="8">
-        <f>MIN(C12,$R$13)</f>
-        <v>25</v>
-      </c>
-      <c r="H12" s="7">
-        <f>MIN($B12,$R$20/$A12)</f>
-        <v>10</v>
-      </c>
       <c r="I12" s="8">
-        <f>MIN(C12,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -10846,7 +10796,7 @@
       <c r="L12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="19">
         <f>M10/M7</f>
         <v>0.43372100840336131</v>
       </c>
@@ -10867,43 +10817,43 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
         <v>2.75</v>
       </c>
       <c r="B13" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="6"/>
+        <v>30.25</v>
+      </c>
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="8">
+      <c r="E13" s="8">
+        <f t="shared" si="7"/>
+        <v>30.25</v>
+      </c>
+      <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>30.25</v>
-      </c>
-      <c r="D13" s="7">
-        <f>MIN($B13,$R$5/$A13)</f>
         <v>11</v>
       </c>
-      <c r="E13" s="8">
+      <c r="G13" s="8">
         <f t="shared" si="2"/>
         <v>30.25</v>
       </c>
-      <c r="F13" s="7">
-        <f>MIN($B13,$R$13/$A13)</f>
+      <c r="H13" s="7">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G13" s="8">
-        <f>MIN(C13,$R$13)</f>
+      <c r="I13" s="8">
+        <f t="shared" si="4"/>
         <v>30.25</v>
       </c>
-      <c r="H13" s="7">
-        <f>MIN($B13,$R$20/$A13)</f>
-        <v>11</v>
-      </c>
-      <c r="I13" s="8">
-        <f>MIN(C13,$R$20)</f>
-        <v>30.25</v>
-      </c>
-      <c r="M13" s="21"/>
+      <c r="M13" s="19"/>
       <c r="P13" s="1" t="s">
         <v>60</v>
       </c>
@@ -10918,40 +10868,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>3</v>
       </c>
       <c r="B14" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="8">
+      <c r="E14" s="8">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D14" s="7">
-        <f>MIN($B14,$R$5/$A14)</f>
         <v>12</v>
       </c>
-      <c r="E14" s="8">
+      <c r="G14" s="8">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="F14" s="7">
-        <f>MIN($B14,$R$13/$A14)</f>
+      <c r="H14" s="7">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G14" s="8">
-        <f>MIN(C14,$R$13)</f>
-        <v>36</v>
-      </c>
-      <c r="H14" s="7">
-        <f>MIN($B14,$R$20/$A14)</f>
-        <v>12</v>
-      </c>
       <c r="I14" s="8">
-        <f>MIN(C14,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -10968,144 +10918,144 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="7">
         <v>3.25</v>
       </c>
       <c r="B15" s="2">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="6"/>
+        <v>42.25</v>
+      </c>
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="8">
+      <c r="E15" s="8">
+        <f t="shared" si="7"/>
+        <v>42.25</v>
+      </c>
+      <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>42.25</v>
-      </c>
-      <c r="D15" s="7">
-        <f>MIN($B15,$R$5/$A15)</f>
         <v>13</v>
       </c>
-      <c r="E15" s="8">
+      <c r="G15" s="8">
         <f t="shared" si="2"/>
         <v>42.25</v>
       </c>
-      <c r="F15" s="7">
-        <f>MIN($B15,$R$13/$A15)</f>
+      <c r="H15" s="7">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G15" s="8">
-        <f>MIN(C15,$R$13)</f>
+      <c r="I15" s="8">
+        <f t="shared" si="4"/>
         <v>42.25</v>
       </c>
-      <c r="H15" s="7">
-        <f>MIN($B15,$R$20/$A15)</f>
-        <v>13</v>
-      </c>
-      <c r="I15" s="8">
-        <f>MIN(C15,$R$20)</f>
-        <v>42.25</v>
-      </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="18" t="s">
         <v>41</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="19">
         <v>0.40450000000000003</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>3.5</v>
       </c>
       <c r="B16" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="8">
+      <c r="E16" s="8">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="D16" s="7">
-        <f>MIN($B16,$R$5/$A16)</f>
         <v>14</v>
       </c>
-      <c r="E16" s="8">
+      <c r="G16" s="8">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="F16" s="7">
-        <f>MIN($B16,$R$13/$A16)</f>
+      <c r="H16" s="7">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="G16" s="8">
-        <f>MIN(C16,$R$13)</f>
+      <c r="I16" s="8">
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="H16" s="7">
-        <f>MIN($B16,$R$20/$A16)</f>
-        <v>14</v>
-      </c>
-      <c r="I16" s="8">
-        <f>MIN(C16,$R$20)</f>
-        <v>49</v>
-      </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="18" t="s">
         <v>42</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="19">
         <v>0.1</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="P16" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-    </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+    </row>
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
         <v>3.75</v>
       </c>
       <c r="B17" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="6"/>
+        <v>56.25</v>
+      </c>
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="8">
+      <c r="E17" s="8">
+        <f t="shared" si="7"/>
+        <v>56.25</v>
+      </c>
+      <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>56.25</v>
-      </c>
-      <c r="D17" s="7">
-        <f>MIN($B17,$R$5/$A17)</f>
         <v>15</v>
       </c>
-      <c r="E17" s="8">
+      <c r="G17" s="8">
         <f t="shared" si="2"/>
         <v>56.25</v>
       </c>
-      <c r="F17" s="7">
-        <f>MIN($B17,$R$13/$A17)</f>
+      <c r="H17" s="7">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="G17" s="8">
-        <f>MIN(C17,$R$13)</f>
-        <v>56.25</v>
-      </c>
-      <c r="H17" s="7">
-        <f>MIN($B17,$R$20/$A17)</f>
-        <v>15</v>
-      </c>
       <c r="I17" s="8">
-        <f>MIN(C17,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>56.25</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -11114,7 +11064,7 @@
       <c r="L17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="19">
         <v>0.05</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -11134,40 +11084,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
         <v>4</v>
       </c>
       <c r="B18" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="D18" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="8">
+      <c r="E18" s="8">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="D18" s="7">
-        <f>MIN($B18,$R$5/$A18)</f>
         <v>16</v>
       </c>
-      <c r="E18" s="8">
+      <c r="G18" s="8">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="F18" s="7">
-        <f>MIN($B18,$R$13/$A18)</f>
+      <c r="H18" s="7">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="G18" s="8">
-        <f>MIN(C18,$R$13)</f>
-        <v>64</v>
-      </c>
-      <c r="H18" s="7">
-        <f>MIN($B18,$R$20/$A18)</f>
-        <v>16</v>
-      </c>
       <c r="I18" s="8">
-        <f>MIN(C18,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -11176,7 +11126,7 @@
       <c r="L18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="19">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="N18" s="3" t="s">
@@ -11196,49 +11146,49 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
         <v>4.25</v>
       </c>
       <c r="B19" s="2">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="6"/>
+        <v>72.25</v>
+      </c>
+      <c r="D19" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="8">
+      <c r="E19" s="8">
+        <f t="shared" si="7"/>
+        <v>72.25</v>
+      </c>
+      <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>72.25</v>
-      </c>
-      <c r="D19" s="7">
-        <f>MIN($B19,$R$5/$A19)</f>
         <v>17</v>
       </c>
-      <c r="E19" s="8">
+      <c r="G19" s="8">
         <f t="shared" si="2"/>
         <v>72.25</v>
       </c>
-      <c r="F19" s="7">
-        <f>MIN($B19,$R$13/$A19)</f>
+      <c r="H19" s="7">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="G19" s="8">
-        <f>MIN(C19,$R$13)</f>
+      <c r="I19" s="8">
+        <f t="shared" si="4"/>
         <v>72.25</v>
       </c>
-      <c r="H19" s="7">
-        <f>MIN($B19,$R$20/$A19)</f>
-        <v>17</v>
-      </c>
-      <c r="I19" s="8">
-        <f>MIN(C19,$R$20)</f>
-        <v>72.25</v>
-      </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="18" t="s">
         <v>40</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="19">
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -11258,40 +11208,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <v>4.5</v>
       </c>
       <c r="B20" s="2">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="D20" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="8">
+      <c r="E20" s="8">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="D20" s="7">
-        <f>MIN($B20,$R$5/$A20)</f>
         <v>18</v>
       </c>
-      <c r="E20" s="8">
+      <c r="G20" s="8">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="F20" s="7">
-        <f>MIN($B20,$R$13/$A20)</f>
+      <c r="H20" s="7">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="G20" s="8">
-        <f>MIN(C20,$R$13)</f>
-        <v>81</v>
-      </c>
-      <c r="H20" s="7">
-        <f>MIN($B20,$R$20/$A20)</f>
-        <v>18</v>
-      </c>
       <c r="I20" s="8">
-        <f>MIN(C20,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="P20" s="1" t="s">
@@ -11308,40 +11258,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
         <v>4.75</v>
       </c>
       <c r="B21" s="2">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="6"/>
+        <v>90.25</v>
+      </c>
+      <c r="D21" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="8">
+      <c r="E21" s="8">
+        <f t="shared" si="7"/>
+        <v>90.25</v>
+      </c>
+      <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>90.25</v>
-      </c>
-      <c r="D21" s="7">
-        <f>MIN($B21,$R$5/$A21)</f>
         <v>19</v>
       </c>
-      <c r="E21" s="8">
+      <c r="G21" s="8">
         <f t="shared" si="2"/>
         <v>90.25</v>
       </c>
-      <c r="F21" s="7">
-        <f>MIN($B21,$R$13/$A21)</f>
+      <c r="H21" s="7">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="G21" s="8">
-        <f>MIN(C21,$R$13)</f>
-        <v>90.25</v>
-      </c>
-      <c r="H21" s="7">
-        <f>MIN($B21,$R$20/$A21)</f>
-        <v>19</v>
-      </c>
       <c r="I21" s="8">
-        <f>MIN(C21,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>90.25</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -11358,747 +11308,747 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <v>5</v>
       </c>
       <c r="B22" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="D22" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="9">
+      <c r="E22" s="8">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="D22" s="7">
-        <f>MIN($B22,$R$5/$A22)</f>
         <v>20</v>
       </c>
-      <c r="E22" s="8">
+      <c r="G22" s="8">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F22" s="7">
-        <f>MIN($B22,$R$13/$A22)</f>
+      <c r="H22" s="7">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="G22" s="8">
-        <f>MIN(C22,$R$13)</f>
+      <c r="I22" s="8">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H22" s="7">
-        <f>MIN($B22,$R$20/$A22)</f>
-        <v>20</v>
-      </c>
-      <c r="I22" s="8">
-        <f>MIN(C22,$R$20)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
         <v>5.25</v>
       </c>
       <c r="B23" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" si="6"/>
+        <v>110.25</v>
+      </c>
+      <c r="D23" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="9">
+      <c r="E23" s="8">
+        <f t="shared" si="7"/>
+        <v>110.25</v>
+      </c>
+      <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>110.25</v>
-      </c>
-      <c r="D23" s="7">
-        <f>MIN($B23,$R$5/$A23)</f>
         <v>21</v>
       </c>
-      <c r="E23" s="8">
+      <c r="G23" s="8">
         <f t="shared" si="2"/>
         <v>110.25</v>
       </c>
-      <c r="F23" s="7">
-        <f>MIN($B23,$R$13/$A23)</f>
+      <c r="H23" s="7">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="G23" s="8">
-        <f>MIN(C23,$R$13)</f>
+      <c r="I23" s="8">
+        <f t="shared" si="4"/>
         <v>110.25</v>
       </c>
-      <c r="H23" s="7">
-        <f>MIN($B23,$R$20/$A23)</f>
-        <v>21</v>
-      </c>
-      <c r="I23" s="8">
-        <f>MIN(C23,$R$20)</f>
-        <v>110.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <v>5.5</v>
       </c>
       <c r="B24" s="2">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="D24" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="9">
+      <c r="E24" s="8">
+        <f t="shared" si="7"/>
+        <v>121</v>
+      </c>
+      <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="D24" s="7">
-        <f>MIN($B24,$R$5/$A24)</f>
         <v>22</v>
       </c>
-      <c r="E24" s="8">
+      <c r="G24" s="8">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="F24" s="7">
-        <f>MIN($B24,$R$13/$A24)</f>
-        <v>22</v>
-      </c>
-      <c r="G24" s="8">
-        <f>MIN(C24,$R$13)</f>
-        <v>121</v>
-      </c>
       <c r="H24" s="7">
-        <f>MIN($B24,$R$20/$A24)</f>
+        <f t="shared" si="3"/>
         <v>21.693969803780593</v>
       </c>
       <c r="I24" s="8">
-        <f>MIN(C24,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
         <v>5.75</v>
       </c>
       <c r="B25" s="2">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" si="6"/>
+        <v>132.25</v>
+      </c>
+      <c r="D25" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="9">
+      <c r="E25" s="8">
+        <f t="shared" si="7"/>
+        <v>132.25</v>
+      </c>
+      <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>132.25</v>
-      </c>
-      <c r="D25" s="7">
-        <f>MIN($B25,$R$5/$A25)</f>
         <v>23</v>
       </c>
-      <c r="E25" s="8">
+      <c r="G25" s="8">
         <f t="shared" si="2"/>
         <v>132.25</v>
       </c>
-      <c r="F25" s="7">
-        <f>MIN($B25,$R$13/$A25)</f>
-        <v>23</v>
-      </c>
-      <c r="G25" s="8">
-        <f>MIN(C25,$R$13)</f>
-        <v>132.25</v>
-      </c>
       <c r="H25" s="7">
-        <f>MIN($B25,$R$20/$A25)</f>
+        <f t="shared" si="3"/>
         <v>20.750753725355352</v>
       </c>
       <c r="I25" s="8">
-        <f>MIN(C25,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="7">
         <v>6</v>
       </c>
       <c r="B26" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="D26" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="9">
+      <c r="E26" s="8">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="D26" s="7">
-        <f>MIN($B26,$R$5/$A26)</f>
         <v>24</v>
       </c>
-      <c r="E26" s="8">
+      <c r="G26" s="8">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="F26" s="7">
-        <f>MIN($B26,$R$13/$A26)</f>
-        <v>24</v>
-      </c>
-      <c r="G26" s="8">
-        <f>MIN(C26,$R$13)</f>
-        <v>144</v>
-      </c>
       <c r="H26" s="7">
-        <f>MIN($B26,$R$20/$A26)</f>
+        <f t="shared" si="3"/>
         <v>19.88613898679888</v>
       </c>
       <c r="I26" s="8">
-        <f>MIN(C26,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="7">
         <v>6.25</v>
       </c>
       <c r="B27" s="2">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" si="6"/>
+        <v>156.25</v>
+      </c>
+      <c r="D27" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="9">
+      <c r="E27" s="8">
+        <f t="shared" si="7"/>
+        <v>156.25</v>
+      </c>
+      <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>156.25</v>
-      </c>
-      <c r="D27" s="7">
-        <f>MIN($B27,$R$5/$A27)</f>
         <v>25</v>
       </c>
-      <c r="E27" s="8">
+      <c r="G27" s="8">
         <f t="shared" si="2"/>
         <v>156.25</v>
       </c>
-      <c r="F27" s="7">
-        <f>MIN($B27,$R$13/$A27)</f>
-        <v>25</v>
-      </c>
-      <c r="G27" s="8">
-        <f>MIN(C27,$R$13)</f>
-        <v>156.25</v>
-      </c>
       <c r="H27" s="7">
-        <f>MIN($B27,$R$20/$A27)</f>
+        <f t="shared" si="3"/>
         <v>19.090693427326922</v>
       </c>
       <c r="I27" s="8">
-        <f>MIN(C27,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="7">
         <v>6.5</v>
       </c>
       <c r="B28" s="2">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" si="6"/>
+        <v>169</v>
+      </c>
+      <c r="D28" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="9">
+      <c r="E28" s="8">
+        <f t="shared" si="7"/>
+        <v>169</v>
+      </c>
+      <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>169</v>
-      </c>
-      <c r="D28" s="7">
-        <f>MIN($B28,$R$5/$A28)</f>
         <v>26</v>
       </c>
-      <c r="E28" s="8">
+      <c r="G28" s="8">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="F28" s="7">
-        <f>MIN($B28,$R$13/$A28)</f>
-        <v>26</v>
-      </c>
-      <c r="G28" s="8">
-        <f>MIN(C28,$R$13)</f>
-        <v>169</v>
-      </c>
       <c r="H28" s="7">
-        <f>MIN($B28,$R$20/$A28)</f>
+        <f t="shared" si="3"/>
         <v>18.356435987814351</v>
       </c>
       <c r="I28" s="8">
-        <f>MIN(C28,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="7">
         <v>6.75</v>
       </c>
       <c r="B29" s="2">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" si="6"/>
+        <v>182.25</v>
+      </c>
+      <c r="D29" s="7">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="9">
+      <c r="E29" s="8">
+        <f t="shared" si="7"/>
+        <v>182.25</v>
+      </c>
+      <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>182.25</v>
-      </c>
-      <c r="D29" s="7">
-        <f>MIN($B29,$R$5/$A29)</f>
         <v>27</v>
       </c>
-      <c r="E29" s="8">
+      <c r="G29" s="8">
         <f t="shared" si="2"/>
         <v>182.25</v>
       </c>
-      <c r="F29" s="7">
-        <f>MIN($B29,$R$13/$A29)</f>
-        <v>27</v>
-      </c>
-      <c r="G29" s="8">
-        <f>MIN(C29,$R$13)</f>
-        <v>182.25</v>
-      </c>
       <c r="H29" s="7">
-        <f>MIN($B29,$R$20/$A29)</f>
+        <f t="shared" si="3"/>
         <v>17.676567988265671</v>
       </c>
       <c r="I29" s="8">
-        <f>MIN(C29,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="7">
         <v>7</v>
       </c>
       <c r="B30" s="2">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="6"/>
+        <v>196</v>
+      </c>
+      <c r="D30" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="9">
+      <c r="E30" s="8">
+        <f t="shared" si="7"/>
+        <v>196</v>
+      </c>
+      <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>196</v>
-      </c>
-      <c r="D30" s="7">
-        <f>MIN($B30,$R$5/$A30)</f>
         <v>28</v>
       </c>
-      <c r="E30" s="8">
+      <c r="G30" s="8">
         <f t="shared" si="2"/>
         <v>196</v>
       </c>
-      <c r="F30" s="7">
-        <f>MIN($B30,$R$13/$A30)</f>
-        <v>28</v>
-      </c>
-      <c r="G30" s="8">
-        <f>MIN(C30,$R$13)</f>
-        <v>196</v>
-      </c>
       <c r="H30" s="7">
-        <f>MIN($B30,$R$20/$A30)</f>
+        <f t="shared" si="3"/>
         <v>17.045261988684754</v>
       </c>
       <c r="I30" s="8">
-        <f>MIN(C30,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="7">
         <v>7.25</v>
       </c>
       <c r="B31" s="2">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" si="6"/>
+        <v>210.25</v>
+      </c>
+      <c r="D31" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="9">
+      <c r="E31" s="8">
+        <f t="shared" si="7"/>
+        <v>210.25</v>
+      </c>
+      <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>210.25</v>
-      </c>
-      <c r="D31" s="7">
-        <f>MIN($B31,$R$5/$A31)</f>
-        <v>29</v>
-      </c>
-      <c r="E31" s="8">
+        <v>27.119496317571219</v>
+      </c>
+      <c r="G31" s="8">
         <f t="shared" si="2"/>
-        <v>210.25</v>
-      </c>
-      <c r="F31" s="7">
-        <f>MIN($B31,$R$13/$A31)</f>
-        <v>27.119496317571219</v>
-      </c>
-      <c r="G31" s="8">
-        <f>MIN(C31,$R$13)</f>
         <v>196.61634830239134</v>
       </c>
       <c r="H31" s="7">
-        <f>MIN($B31,$R$20/$A31)</f>
+        <f t="shared" si="3"/>
         <v>16.45749433390252</v>
       </c>
       <c r="I31" s="8">
-        <f>MIN(C31,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="7">
         <v>7.5</v>
       </c>
       <c r="B32" s="2">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="9">
+        <f t="shared" si="6"/>
+        <v>225</v>
+      </c>
+      <c r="D32" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="9">
+      <c r="E32" s="8">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+      <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="D32" s="7">
-        <f>MIN($B32,$R$5/$A32)</f>
-        <v>30</v>
-      </c>
-      <c r="E32" s="8">
+        <v>26.215513106985512</v>
+      </c>
+      <c r="G32" s="8">
         <f t="shared" si="2"/>
-        <v>225</v>
-      </c>
-      <c r="F32" s="7">
-        <f>MIN($B32,$R$13/$A32)</f>
-        <v>26.215513106985512</v>
-      </c>
-      <c r="G32" s="8">
-        <f>MIN(C32,$R$13)</f>
         <v>196.61634830239134</v>
       </c>
       <c r="H32" s="7">
-        <f>MIN($B32,$R$20/$A32)</f>
+        <f t="shared" si="3"/>
         <v>15.908911189439102</v>
       </c>
       <c r="I32" s="8">
-        <f>MIN(C32,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="7">
         <v>7.75</v>
       </c>
       <c r="B33" s="2">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="9">
+        <f t="shared" si="6"/>
+        <v>240.25</v>
+      </c>
+      <c r="D33" s="7">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="9">
+        <v>29.758039134272128</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="7"/>
+        <v>230.62480329060898</v>
+      </c>
+      <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>240.25</v>
-      </c>
-      <c r="D33" s="7">
-        <f>MIN($B33,$R$5/$A33)</f>
-        <v>29.758039134272128</v>
-      </c>
-      <c r="E33" s="8">
+        <v>25.369851393856948</v>
+      </c>
+      <c r="G33" s="8">
         <f t="shared" si="2"/>
-        <v>230.62480329060898</v>
-      </c>
-      <c r="F33" s="7">
-        <f>MIN($B33,$R$13/$A33)</f>
-        <v>25.369851393856948</v>
-      </c>
-      <c r="G33" s="8">
-        <f>MIN(C33,$R$13)</f>
         <v>196.61634830239134</v>
       </c>
       <c r="H33" s="7">
-        <f>MIN($B33,$R$20/$A33)</f>
+        <f t="shared" si="3"/>
         <v>15.395720505908809</v>
       </c>
       <c r="I33" s="8">
-        <f>MIN(C33,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="7">
         <v>8</v>
       </c>
       <c r="B34" s="2">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" si="6"/>
+        <v>256</v>
+      </c>
+      <c r="D34" s="7">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="9">
+        <v>28.828100411326123</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="7"/>
+        <v>230.62480329060898</v>
+      </c>
+      <c r="F34" s="7">
         <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-      <c r="D34" s="7">
-        <f>MIN($B34,$R$5/$A34)</f>
-        <v>28.828100411326123</v>
-      </c>
-      <c r="E34" s="8">
+        <v>24.577043537798918</v>
+      </c>
+      <c r="G34" s="8">
         <f t="shared" si="2"/>
-        <v>230.62480329060898</v>
-      </c>
-      <c r="F34" s="7">
-        <f>MIN($B34,$R$13/$A34)</f>
-        <v>24.577043537798918</v>
-      </c>
-      <c r="G34" s="8">
-        <f>MIN(C34,$R$13)</f>
         <v>196.61634830239134</v>
       </c>
       <c r="H34" s="7">
-        <f>MIN($B34,$R$20/$A34)</f>
+        <f t="shared" si="3"/>
         <v>14.914604240099159</v>
       </c>
       <c r="I34" s="8">
-        <f>MIN(C34,$R$20)</f>
+        <f t="shared" si="4"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="7">
         <v>8.25</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="C35" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>272.25</v>
       </c>
       <c r="D35" s="7">
-        <f>MIN($B35,$R$5/$A35)</f>
+        <f t="shared" ref="D35:D66" si="8">MIN($B35,$R$5/$A35)</f>
         <v>27.954521610982908</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F35" s="7">
-        <f>MIN($B35,$R$13/$A35)</f>
+        <f t="shared" ref="F35:F66" si="9">MIN($B35,$R$13/$A35)</f>
         <v>23.832284642714104</v>
       </c>
       <c r="G35" s="8">
-        <f>MIN(C35,$R$13)</f>
+        <f t="shared" ref="G35:G66" si="10">MIN(C35,$R$13)</f>
         <v>196.61634830239134</v>
       </c>
       <c r="H35" s="7">
-        <f>MIN($B35,$R$20/$A35)</f>
+        <f t="shared" ref="H35:H66" si="11">MIN($B35,$R$20/$A35)</f>
         <v>14.462646535853731</v>
       </c>
       <c r="I35" s="8">
-        <f>MIN(C35,$R$20)</f>
+        <f t="shared" ref="I35:I66" si="12">MIN(C35,$R$20)</f>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="7">
         <v>8.5</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="C36" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>289</v>
       </c>
       <c r="D36" s="7">
-        <f>MIN($B36,$R$5/$A36)</f>
+        <f t="shared" si="8"/>
         <v>27.132329798895174</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F36" s="7">
-        <f>MIN($B36,$R$13/$A36)</f>
+        <f t="shared" si="9"/>
         <v>23.131335094398981</v>
       </c>
       <c r="G36" s="8">
-        <f>MIN(C36,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H36" s="7">
-        <f>MIN($B36,$R$20/$A36)</f>
+        <f t="shared" si="11"/>
         <v>14.037274578916856</v>
       </c>
       <c r="I36" s="8">
-        <f>MIN(C36,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="7">
         <v>8.75</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="C37" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>306.25</v>
       </c>
       <c r="D37" s="7">
-        <f>MIN($B37,$R$5/$A37)</f>
+        <f t="shared" si="8"/>
         <v>26.357120376069599</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F37" s="7">
-        <f>MIN($B37,$R$13/$A37)</f>
+        <f t="shared" si="9"/>
         <v>22.470439805987581</v>
       </c>
       <c r="G37" s="8">
-        <f>MIN(C37,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H37" s="7">
-        <f>MIN($B37,$R$20/$A37)</f>
+        <f t="shared" si="11"/>
         <v>13.636209590947802</v>
       </c>
       <c r="I37" s="8">
-        <f>MIN(C37,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="7">
         <v>9</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="C38" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>324</v>
       </c>
       <c r="D38" s="7">
-        <f>MIN($B38,$R$5/$A38)</f>
+        <f t="shared" si="8"/>
         <v>25.624978143400998</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F38" s="7">
-        <f>MIN($B38,$R$13/$A38)</f>
+        <f t="shared" si="9"/>
         <v>21.846260922487929</v>
       </c>
       <c r="G38" s="8">
-        <f>MIN(C38,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H38" s="7">
-        <f>MIN($B38,$R$20/$A38)</f>
+        <f t="shared" si="11"/>
         <v>13.257425991199252</v>
       </c>
       <c r="I38" s="8">
-        <f>MIN(C38,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
         <v>9.25</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="C39" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>342.25</v>
       </c>
       <c r="D39" s="7">
-        <f>MIN($B39,$R$5/$A39)</f>
+        <f t="shared" si="8"/>
         <v>24.93241116655232</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F39" s="7">
-        <f>MIN($B39,$R$13/$A39)</f>
+        <f t="shared" si="9"/>
         <v>21.255821438096362</v>
       </c>
       <c r="G39" s="8">
-        <f>MIN(C39,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H39" s="7">
-        <f>MIN($B39,$R$20/$A39)</f>
+        <f t="shared" si="11"/>
         <v>12.8991171806263</v>
       </c>
       <c r="I39" s="8">
-        <f>MIN(C39,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="7">
         <v>9.5</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="C40" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>361</v>
       </c>
       <c r="D40" s="7">
-        <f>MIN($B40,$R$5/$A40)</f>
+        <f t="shared" si="8"/>
         <v>24.276295083221999</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F40" s="7">
-        <f>MIN($B40,$R$13/$A40)</f>
+        <f t="shared" si="9"/>
         <v>20.696457716041195</v>
       </c>
       <c r="G40" s="8">
-        <f>MIN(C40,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H40" s="7">
-        <f>MIN($B40,$R$20/$A40)</f>
+        <f t="shared" si="11"/>
         <v>12.559666728504554</v>
       </c>
       <c r="I40" s="8">
-        <f>MIN(C40,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="7">
         <v>9.75</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="C41" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>380.25</v>
       </c>
       <c r="D41" s="7">
-        <f>MIN($B41,$R$5/$A41)</f>
+        <f t="shared" si="8"/>
         <v>23.653825978523997</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F41" s="7">
-        <f>MIN($B41,$R$13/$A41)</f>
+        <f t="shared" si="9"/>
         <v>20.16577931306578</v>
       </c>
       <c r="G41" s="8">
-        <f>MIN(C41,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H41" s="7">
-        <f>MIN($B41,$R$20/$A41)</f>
+        <f t="shared" si="11"/>
         <v>12.237623991876234</v>
       </c>
       <c r="I41" s="8">
-        <f>MIN(C41,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="7">
         <f>Comparison!I3</f>
         <v>10</v>
@@ -12108,35 +12058,35 @@
         <v>42.340946623038278</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>423.4094662303828</v>
       </c>
       <c r="D42" s="7">
-        <f>MIN($B42,$R$5/$A42)</f>
+        <f t="shared" si="8"/>
         <v>23.062480329060897</v>
       </c>
       <c r="E42" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F42" s="7">
-        <f>MIN($B42,$R$13/$A42)</f>
+        <f t="shared" si="9"/>
         <v>19.661634830239134</v>
       </c>
       <c r="G42" s="8">
-        <f>MIN(C42,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H42" s="7">
-        <f>MIN($B42,$R$20/$A42)</f>
+        <f t="shared" si="11"/>
         <v>11.931683392079327</v>
       </c>
       <c r="I42" s="8">
-        <f>MIN(C42,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="7">
         <f>Comparison!I4</f>
         <v>11.337222110373594</v>
@@ -12146,35 +12096,35 @@
         <v>46.074054643460492</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>522.3517910184014</v>
       </c>
       <c r="D43" s="7">
-        <f>MIN($B43,$R$5/$A43)</f>
+        <f t="shared" si="8"/>
         <v>20.342267360148707</v>
       </c>
       <c r="E43" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F43" s="7">
-        <f>MIN($B43,$R$13/$A43)</f>
+        <f t="shared" si="9"/>
         <v>17.342550616741182</v>
       </c>
       <c r="G43" s="8">
-        <f>MIN(C43,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H43" s="7">
-        <f>MIN($B43,$R$20/$A43)</f>
+        <f t="shared" si="11"/>
         <v>10.524344743287511</v>
       </c>
       <c r="I43" s="8">
-        <f>MIN(C43,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="7">
         <f>Comparison!I5</f>
         <v>12.903670133433213</v>
@@ -12184,35 +12134,35 @@
         <v>44.351950751877808</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>572.30294227650643</v>
       </c>
       <c r="D44" s="7">
-        <f>MIN($B44,$R$5/$A44)</f>
+        <f t="shared" si="8"/>
         <v>17.872806798824129</v>
       </c>
       <c r="E44" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F44" s="7">
-        <f>MIN($B44,$R$13/$A44)</f>
+        <f t="shared" si="9"/>
         <v>15.237242293799914</v>
       </c>
       <c r="G44" s="8">
-        <f>MIN(C44,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H44" s="7">
-        <f>MIN($B44,$R$20/$A44)</f>
+        <f t="shared" si="11"/>
         <v>9.2467362143461163</v>
       </c>
       <c r="I44" s="8">
-        <f>MIN(C44,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="7">
         <f>Comparison!I6</f>
         <v>14.686552075230503</v>
@@ -12222,35 +12172,35 @@
         <v>38.620024230057048</v>
       </c>
       <c r="C45" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>567.1949970013967</v>
       </c>
       <c r="D45" s="7">
-        <f>MIN($B45,$R$5/$A45)</f>
+        <f t="shared" si="8"/>
         <v>15.703127739530339</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F45" s="7">
-        <f>MIN($B45,$R$13/$A45)</f>
+        <f t="shared" si="9"/>
         <v>13.387509014726009</v>
       </c>
       <c r="G45" s="8">
-        <f>MIN(C45,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H45" s="7">
-        <f>MIN($B45,$R$20/$A45)</f>
+        <f t="shared" si="11"/>
         <v>8.1242236645881096</v>
       </c>
       <c r="I45" s="8">
-        <f>MIN(C45,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="7">
         <f>Comparison!I7</f>
         <v>16.715772305709788</v>
@@ -12260,35 +12210,35 @@
         <v>33.668932604971978</v>
       </c>
       <c r="C46" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>562.80221120099986</v>
       </c>
       <c r="D46" s="7">
-        <f>MIN($B46,$R$5/$A46)</f>
+        <f t="shared" si="8"/>
         <v>13.796838044499562</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F46" s="7">
-        <f>MIN($B46,$R$13/$A46)</f>
+        <f t="shared" si="9"/>
         <v>11.762325108677807</v>
       </c>
       <c r="G46" s="8">
-        <f>MIN(C46,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H46" s="7">
-        <f>MIN($B46,$R$20/$A46)</f>
+        <f t="shared" si="11"/>
         <v>7.1379791336375717</v>
       </c>
       <c r="I46" s="8">
-        <f>MIN(C46,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="7">
         <f>Comparison!I8</f>
         <v>19.025367039523395</v>
@@ -12298,35 +12248,35 @@
         <v>29.352571505532445</v>
       </c>
       <c r="C47" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>558.44344644661055</v>
       </c>
       <c r="D47" s="7">
-        <f>MIN($B47,$R$5/$A47)</f>
+        <f t="shared" si="8"/>
         <v>12.121963419234321</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F47" s="7">
-        <f>MIN($B47,$R$13/$A47)</f>
+        <f t="shared" si="9"/>
         <v>10.334431282925555</v>
       </c>
       <c r="G47" s="8">
-        <f>MIN(C47,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H47" s="7">
-        <f>MIN($B47,$R$20/$A47)</f>
+        <f t="shared" si="11"/>
         <v>6.2714602915635673</v>
       </c>
       <c r="I47" s="8">
-        <f>MIN(C47,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="7">
         <f>Comparison!I9</f>
         <v>21.654075227199822</v>
@@ -12336,35 +12286,35 @@
         <v>25.597185091400483</v>
       </c>
       <c r="C48" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>554.28337157374381</v>
       </c>
       <c r="D48" s="7">
-        <f>MIN($B48,$R$5/$A48)</f>
+        <f t="shared" si="8"/>
         <v>10.650411106031427</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F48" s="7">
-        <f>MIN($B48,$R$13/$A48)</f>
+        <f t="shared" si="9"/>
         <v>9.0798774013410792</v>
       </c>
       <c r="G48" s="8">
-        <f>MIN(C48,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H48" s="7">
-        <f>MIN($B48,$R$20/$A48)</f>
+        <f t="shared" si="11"/>
         <v>5.5101329735346365</v>
       </c>
       <c r="I48" s="8">
-        <f>MIN(C48,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="7">
         <f>Comparison!I10</f>
         <v>24.645988325541154</v>
@@ -12374,35 +12324,35 @@
         <v>22.322265171210606</v>
       </c>
       <c r="C49" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>550.15428680929051</v>
       </c>
       <c r="D49" s="7">
-        <f>MIN($B49,$R$5/$A49)</f>
+        <f t="shared" si="8"/>
         <v>9.3574986827210189</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F49" s="7">
-        <f>MIN($B49,$R$13/$A49)</f>
+        <f t="shared" si="9"/>
         <v>7.9776207675402375</v>
       </c>
       <c r="G49" s="8">
-        <f>MIN(C49,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H49" s="7">
-        <f>MIN($B49,$R$20/$A49)</f>
+        <f t="shared" si="11"/>
         <v>4.8412273975291438</v>
       </c>
       <c r="I49" s="8">
-        <f>MIN(C49,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="7">
         <f>Comparison!I11</f>
         <v>28.051289845881762</v>
@@ -12412,35 +12362,35 @@
         <v>19.454757492123196</v>
       </c>
       <c r="C50" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>545.73104129288754</v>
       </c>
       <c r="D50" s="7">
-        <f>MIN($B50,$R$5/$A50)</f>
+        <f t="shared" si="8"/>
         <v>8.2215400631378532</v>
       </c>
       <c r="E50" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F50" s="7">
-        <f>MIN($B50,$R$13/$A50)</f>
+        <f t="shared" si="9"/>
         <v>7.0091731746608721</v>
       </c>
       <c r="G50" s="8">
-        <f>MIN(C50,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H50" s="7">
-        <f>MIN($B50,$R$20/$A50)</f>
+        <f t="shared" si="11"/>
         <v>4.2535239761286876</v>
       </c>
       <c r="I50" s="8">
-        <f>MIN(C50,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="7">
         <f>Comparison!I12</f>
         <v>31.927097084689244</v>
@@ -12450,35 +12400,35 @@
         <v>16.960655305300982</v>
       </c>
       <c r="C51" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>541.50448855229411</v>
       </c>
       <c r="D51" s="7">
-        <f>MIN($B51,$R$5/$A51)</f>
+        <f t="shared" si="8"/>
         <v>7.2234817552894892</v>
       </c>
       <c r="E51" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F51" s="7">
-        <f>MIN($B51,$R$13/$A51)</f>
+        <f t="shared" si="9"/>
         <v>6.1582908017240134</v>
       </c>
       <c r="G51" s="8">
-        <f>MIN(C51,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H51" s="7">
-        <f>MIN($B51,$R$20/$A51)</f>
+        <f t="shared" si="11"/>
         <v>3.7371651298048043</v>
       </c>
       <c r="I51" s="8">
-        <f>MIN(C51,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="7">
         <f>Comparison!I13</f>
         <v>36.338419154897529</v>
@@ -12488,35 +12438,35 @@
         <v>14.786297310655391</v>
       </c>
       <c r="C52" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>537.3106694235297</v>
       </c>
       <c r="D52" s="7">
-        <f>MIN($B52,$R$5/$A52)</f>
+        <f t="shared" si="8"/>
         <v>6.3465832761612138</v>
       </c>
       <c r="E52" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F52" s="7">
-        <f>MIN($B52,$R$13/$A52)</f>
+        <f t="shared" si="9"/>
         <v>5.4107017551943306</v>
       </c>
       <c r="G52" s="8">
-        <f>MIN(C52,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H52" s="7">
-        <f>MIN($B52,$R$20/$A52)</f>
+        <f t="shared" si="11"/>
         <v>3.2834899452336876</v>
       </c>
       <c r="I52" s="8">
-        <f>MIN(C52,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="7">
         <f>Comparison!I14</f>
         <v>41.359247387081268</v>
@@ -12526,35 +12476,35 @@
         <v>12.894529155852153</v>
       </c>
       <c r="C53" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>533.30802129682138</v>
       </c>
       <c r="D53" s="7">
-        <f>MIN($B53,$R$5/$A53)</f>
+        <f t="shared" si="8"/>
         <v>5.5761363627386888</v>
       </c>
       <c r="E53" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F53" s="7">
-        <f>MIN($B53,$R$13/$A53)</f>
+        <f t="shared" si="9"/>
         <v>4.7538666857802951</v>
       </c>
       <c r="G53" s="8">
-        <f>MIN(C53,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H53" s="7">
-        <f>MIN($B53,$R$20/$A53)</f>
+        <f t="shared" si="11"/>
         <v>2.8848889053542686</v>
       </c>
       <c r="I53" s="8">
-        <f>MIN(C53,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="7">
         <f>Comparison!I15</f>
         <v>47.073796389825709</v>
@@ -12564,35 +12514,35 @@
         <v>11.189824203748982</v>
       </c>
       <c r="C54" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>526.7475062052232</v>
       </c>
       <c r="D54" s="7">
-        <f>MIN($B54,$R$5/$A54)</f>
+        <f t="shared" si="8"/>
         <v>4.8992182695605795</v>
       </c>
       <c r="E54" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F54" s="7">
-        <f>MIN($B54,$R$13/$A54)</f>
+        <f t="shared" si="9"/>
         <v>4.1767684652875587</v>
       </c>
       <c r="G54" s="8">
-        <f>MIN(C54,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H54" s="7">
-        <f>MIN($B54,$R$20/$A54)</f>
+        <f t="shared" si="11"/>
         <v>2.5346762545495864</v>
       </c>
       <c r="I54" s="8">
-        <f>MIN(C54,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="7">
         <f>Comparison!I16</f>
         <v>53.577916585661193</v>
@@ -12602,35 +12552,35 @@
         <v>9.8261886467551438</v>
       </c>
       <c r="C55" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>526.46671567081808</v>
       </c>
       <c r="D55" s="7">
-        <f>MIN($B55,$R$5/$A55)</f>
+        <f t="shared" si="8"/>
         <v>4.304475014848375</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F55" s="7">
-        <f>MIN($B55,$R$13/$A55)</f>
+        <f t="shared" si="9"/>
         <v>3.6697273957645988</v>
       </c>
       <c r="G55" s="8">
-        <f>MIN(C55,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H55" s="7">
-        <f>MIN($B55,$R$20/$A55)</f>
+        <f t="shared" si="11"/>
         <v>2.2269778581260748</v>
       </c>
       <c r="I55" s="8">
-        <f>MIN(C55,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="7">
         <f>Comparison!I17</f>
         <v>60.980701915099992</v>
@@ -12640,35 +12590,35 @@
         <v>8.7814034333494462</v>
       </c>
       <c r="C56" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>535.49614516531824</v>
       </c>
       <c r="D56" s="7">
-        <f>MIN($B56,$R$5/$A56)</f>
+        <f t="shared" si="8"/>
         <v>3.7819309395896252</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F56" s="7">
-        <f>MIN($B56,$R$13/$A56)</f>
+        <f t="shared" si="9"/>
         <v>3.2242388514341678</v>
       </c>
       <c r="G56" s="8">
-        <f>MIN(C56,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H56" s="7">
-        <f>MIN($B56,$R$20/$A56)</f>
+        <f t="shared" si="11"/>
         <v>1.9566326751520735</v>
       </c>
       <c r="I56" s="8">
-        <f>MIN(C56,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="7">
         <f>Comparison!I18</f>
         <v>69.406319674876713</v>
@@ -12678,35 +12628,35 @@
         <v>7.4827826186355644</v>
       </c>
       <c r="C57" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>519.35240248663104</v>
       </c>
       <c r="D57" s="7">
-        <f>MIN($B57,$R$5/$A57)</f>
+        <f t="shared" si="8"/>
         <v>3.3228213852994308</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F57" s="7">
-        <f>MIN($B57,$R$13/$A57)</f>
+        <f t="shared" si="9"/>
         <v>2.8328306301704305</v>
       </c>
       <c r="G57" s="8">
-        <f>MIN(C57,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H57" s="7">
-        <f>MIN($B57,$R$20/$A57)</f>
+        <f t="shared" si="11"/>
         <v>1.7191061920544806</v>
       </c>
       <c r="I57" s="8">
-        <f>MIN(C57,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="7">
         <f>Comparison!I19</f>
         <v>78.996093182363609</v>
@@ -12716,35 +12666,35 @@
         <v>6.4975258482511826</v>
       </c>
       <c r="C58" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>513.27915736326656</v>
       </c>
       <c r="D58" s="7">
-        <f>MIN($B58,$R$5/$A58)</f>
+        <f t="shared" si="8"/>
         <v>2.9194456839556397</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F58" s="7">
-        <f>MIN($B58,$R$13/$A58)</f>
+        <f t="shared" si="9"/>
         <v>2.4889376218707384</v>
       </c>
       <c r="G58" s="8">
-        <f>MIN(C58,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H58" s="7">
-        <f>MIN($B58,$R$20/$A58)</f>
+        <f t="shared" si="11"/>
         <v>1.5104143649907933</v>
       </c>
       <c r="I58" s="8">
-        <f>MIN(C58,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="7">
         <f>Comparison!I20</f>
         <v>89.910872198796781</v>
@@ -12754,35 +12704,35 @@
         <v>5.6645422742529776</v>
       </c>
       <c r="C59" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>509.30393648504116</v>
       </c>
       <c r="D59" s="7">
-        <f>MIN($B59,$R$5/$A59)</f>
+        <f t="shared" si="8"/>
         <v>2.5650379943004857</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F59" s="7">
-        <f>MIN($B59,$R$13/$A59)</f>
+        <f t="shared" si="9"/>
         <v>2.1867916915282968</v>
       </c>
       <c r="G59" s="8">
-        <f>MIN(C59,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H59" s="7">
-        <f>MIN($B59,$R$20/$A59)</f>
+        <f t="shared" si="11"/>
         <v>1.3270567952780912</v>
       </c>
       <c r="I59" s="8">
-        <f>MIN(C59,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="10">
         <f>Comparison!I21</f>
         <v>102.24776647907055</v>
@@ -12792,35 +12742,35 @@
         <v>4.9122961832697047</v>
       </c>
       <c r="C60" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>502.27131302299034</v>
       </c>
       <c r="D60" s="7">
-        <f>MIN($B60,$R$5/$A60)</f>
+        <f t="shared" si="8"/>
         <v>2.2555485682693752</v>
       </c>
       <c r="E60" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F60" s="7">
-        <f>MIN($B60,$R$13/$A60)</f>
+        <f t="shared" si="9"/>
         <v>1.9229402760855165</v>
       </c>
       <c r="G60" s="8">
-        <f>MIN(C60,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H60" s="7">
-        <f>MIN($B60,$R$20/$A60)</f>
+        <f t="shared" si="11"/>
         <v>1.1669382914610331</v>
       </c>
       <c r="I60" s="8">
-        <f>MIN(C60,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="10">
         <f>Comparison!I22</f>
         <v>116.47303844111686</v>
@@ -12830,35 +12780,35 @@
         <v>4.3078138723067116</v>
       </c>
       <c r="C61" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>501.74417074635608</v>
       </c>
       <c r="D61" s="7">
-        <f>MIN($B61,$R$5/$A61)</f>
+        <f t="shared" si="8"/>
         <v>1.9800702924668849</v>
       </c>
       <c r="E61" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F61" s="7">
-        <f>MIN($B61,$R$13/$A61)</f>
+        <f t="shared" si="9"/>
         <v>1.6880846497517199</v>
       </c>
       <c r="G61" s="8">
-        <f>MIN(C61,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H61" s="7">
-        <f>MIN($B61,$R$20/$A61)</f>
+        <f t="shared" si="11"/>
         <v>1.0244159121951137</v>
       </c>
       <c r="I61" s="8">
-        <f>MIN(C61,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="10">
         <f>Comparison!I23</f>
         <v>132.56595423914948</v>
@@ -12868,35 +12818,35 @@
         <v>3.7555516298350025</v>
       </c>
       <c r="C62" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>497.85828550347014</v>
       </c>
       <c r="D62" s="7">
-        <f>MIN($B62,$R$5/$A62)</f>
+        <f t="shared" si="8"/>
         <v>1.7396985871241191</v>
       </c>
       <c r="E62" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F62" s="7">
-        <f>MIN($B62,$R$13/$A62)</f>
+        <f t="shared" si="9"/>
         <v>1.4831586996137389</v>
       </c>
       <c r="G62" s="8">
-        <f>MIN(C62,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H62" s="7">
-        <f>MIN($B62,$R$20/$A62)</f>
+        <f t="shared" si="11"/>
         <v>0.90005638782296438</v>
       </c>
       <c r="I62" s="8">
-        <f>MIN(C62,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="10">
         <f>Comparison!I24</f>
         <v>150.88240556393404</v>
@@ -12906,35 +12856,35 @@
         <v>3.2740894714664051</v>
       </c>
       <c r="C63" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>494.00249548640056</v>
       </c>
       <c r="D63" s="7">
-        <f>MIN($B63,$R$5/$A63)</f>
+        <f t="shared" si="8"/>
         <v>1.5285069351103722</v>
       </c>
       <c r="E63" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F63" s="7">
-        <f>MIN($B63,$R$13/$A63)</f>
+        <f t="shared" si="9"/>
         <v>1.3031098461581609</v>
       </c>
       <c r="G63" s="8">
-        <f>MIN(C63,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H63" s="7">
-        <f>MIN($B63,$R$20/$A63)</f>
+        <f t="shared" si="11"/>
         <v>0.79079355525144146</v>
       </c>
       <c r="I63" s="8">
-        <f>MIN(C63,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="10">
         <f>Comparison!I25</f>
         <v>171.72961518981279</v>
@@ -12944,35 +12894,35 @@
         <v>2.8552004103332136</v>
       </c>
       <c r="C64" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>490.32246775631836</v>
       </c>
       <c r="D64" s="7">
-        <f>MIN($B64,$R$5/$A64)</f>
+        <f t="shared" si="8"/>
         <v>1.3429530080510534</v>
       </c>
       <c r="E64" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F64" s="7">
-        <f>MIN($B64,$R$13/$A64)</f>
+        <f t="shared" si="9"/>
         <v>1.144918120762521</v>
       </c>
       <c r="G64" s="8">
-        <f>MIN(C64,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H64" s="7">
-        <f>MIN($B64,$R$20/$A64)</f>
+        <f t="shared" si="11"/>
         <v>0.6947947434046966</v>
       </c>
       <c r="I64" s="8">
-        <f>MIN(C64,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="10">
         <f>Comparison!I26</f>
         <v>195.45725442947543</v>
@@ -12982,35 +12932,35 @@
         <v>2.4891633836516447</v>
       </c>
       <c r="C65" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>486.52504079493349</v>
       </c>
       <c r="D65" s="7">
-        <f>MIN($B65,$R$5/$A65)</f>
+        <f t="shared" si="8"/>
         <v>1.1799245004427434</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F65" s="7">
-        <f>MIN($B65,$R$13/$A65)</f>
+        <f t="shared" si="9"/>
         <v>1.0059301655305617</v>
       </c>
       <c r="G65" s="8">
-        <f>MIN(C65,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H65" s="7">
-        <f>MIN($B65,$R$20/$A65)</f>
+        <f t="shared" si="11"/>
         <v>0.61044975930450807</v>
       </c>
       <c r="I65" s="8">
-        <f>MIN(C65,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="10">
         <f>Comparison!I27</f>
         <v>222.46330818876166</v>
@@ -13020,35 +12970,35 @@
         <v>2.1700523466193422</v>
       </c>
       <c r="C66" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>482.75702397172415</v>
       </c>
       <c r="D66" s="7">
-        <f>MIN($B66,$R$5/$A66)</f>
+        <f t="shared" si="8"/>
         <v>1.0366869267938883</v>
       </c>
       <c r="E66" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F66" s="7">
-        <f>MIN($B66,$R$13/$A66)</f>
+        <f t="shared" si="9"/>
         <v>0.88381472838460629</v>
       </c>
       <c r="G66" s="8">
-        <f>MIN(C66,$R$13)</f>
+        <f t="shared" si="10"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H66" s="7">
-        <f>MIN($B66,$R$20/$A66)</f>
+        <f t="shared" si="11"/>
         <v>0.53634388022114687</v>
       </c>
       <c r="I66" s="8">
-        <f>MIN(C66,$R$20)</f>
+        <f t="shared" si="12"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="10">
         <f>Comparison!I28</f>
         <v>253.20075038782852</v>
@@ -13058,35 +13008,35 @@
         <v>1.8879143284421604</v>
       </c>
       <c r="C67" s="9">
-        <f t="shared" ref="C67:C79" si="3">A67*B67</f>
+        <f t="shared" ref="C67:C79" si="13">A67*B67</f>
         <v>478.02132462948839</v>
       </c>
       <c r="D67" s="7">
-        <f>MIN($B67,$R$5/$A67)</f>
+        <f t="shared" ref="D67:D79" si="14">MIN($B67,$R$5/$A67)</f>
         <v>0.91083775595988603</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F67" s="7">
-        <f>MIN($B67,$R$13/$A67)</f>
+        <f t="shared" ref="F67:F79" si="15">MIN($B67,$R$13/$A67)</f>
         <v>0.77652356085530305</v>
       </c>
       <c r="G67" s="8">
-        <f>MIN(C67,$R$13)</f>
+        <f t="shared" ref="G67:G79" si="16">MIN(C67,$R$13)</f>
         <v>196.61634830239134</v>
       </c>
       <c r="H67" s="7">
-        <f>MIN($B67,$R$20/$A67)</f>
+        <f t="shared" ref="H67:H79" si="17">MIN($B67,$R$20/$A67)</f>
         <v>0.47123412445672153</v>
       </c>
       <c r="I67" s="8">
-        <f>MIN(C67,$R$20)</f>
+        <f t="shared" ref="I67:I79" si="18">MIN(C67,$R$20)</f>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="10">
         <f>Comparison!I29</f>
         <v>288.18514171586895</v>
@@ -13096,35 +13046,35 @@
         <v>1.6288287231732785</v>
       </c>
       <c r="C68" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>469.40423641856916</v>
       </c>
       <c r="D68" s="7">
-        <f>MIN($B68,$R$5/$A68)</f>
+        <f t="shared" si="14"/>
         <v>0.80026611336537756</v>
       </c>
       <c r="E68" s="8">
-        <f t="shared" ref="E68:E79" si="4">MIN(C68,$R$5)</f>
+        <f t="shared" ref="E68:E79" si="19">MIN(C68,$R$5)</f>
         <v>230.62480329060898</v>
       </c>
       <c r="F68" s="7">
-        <f>MIN($B68,$R$13/$A68)</f>
+        <f t="shared" si="15"/>
         <v>0.68225706270534159</v>
       </c>
       <c r="G68" s="8">
-        <f>MIN(C68,$R$13)</f>
+        <f t="shared" si="16"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H68" s="7">
-        <f>MIN($B68,$R$20/$A68)</f>
+        <f t="shared" si="17"/>
         <v>0.41402840274961711</v>
       </c>
       <c r="I68" s="8">
-        <f>MIN(C68,$R$20)</f>
+        <f t="shared" si="18"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="10">
         <f>Comparison!I30</f>
         <v>328.00327715690662</v>
@@ -13134,35 +13084,35 @@
         <v>1.4040443061740879</v>
       </c>
       <c r="C69" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>460.53113369859602</v>
       </c>
       <c r="D69" s="7">
-        <f>MIN($B69,$R$5/$A69)</f>
+        <f t="shared" si="14"/>
         <v>0.70311737519709361</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F69" s="7">
-        <f>MIN($B69,$R$13/$A69)</f>
+        <f t="shared" si="15"/>
         <v>0.59943409714268236</v>
       </c>
       <c r="G69" s="8">
-        <f>MIN(C69,$R$13)</f>
+        <f t="shared" si="16"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H69" s="7">
-        <f>MIN($B69,$R$20/$A69)</f>
+        <f t="shared" si="17"/>
         <v>0.36376720060548601</v>
       </c>
       <c r="I69" s="8">
-        <f>MIN(C69,$R$20)</f>
+        <f t="shared" si="18"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="10">
         <f>Comparison!I31</f>
         <v>373.32302833205455</v>
@@ -13172,35 +13122,35 @@
         <v>1.1810330321045945</v>
       </c>
       <c r="C70" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>440.90682810547582</v>
       </c>
       <c r="D70" s="7">
-        <f>MIN($B70,$R$5/$A70)</f>
+        <f t="shared" si="14"/>
         <v>0.61776206070384243</v>
       </c>
       <c r="E70" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F70" s="7">
-        <f>MIN($B70,$R$13/$A70)</f>
+        <f t="shared" si="15"/>
         <v>0.52666547033233024</v>
       </c>
       <c r="G70" s="8">
-        <f>MIN(C70,$R$13)</f>
+        <f t="shared" si="16"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H70" s="7">
-        <f>MIN($B70,$R$20/$A70)</f>
+        <f t="shared" si="17"/>
         <v>0.31960748431159236</v>
       </c>
       <c r="I70" s="8">
-        <f>MIN(C70,$R$20)</f>
+        <f t="shared" si="18"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="10">
         <f>Comparison!I32</f>
         <v>403.4878297671961</v>
@@ -13210,35 +13160,35 @@
         <v>1.0912684077570403</v>
       </c>
       <c r="C71" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>440.31352153939179</v>
       </c>
       <c r="D71" s="7">
-        <f>MIN($B71,$R$5/$A71)</f>
+        <f t="shared" si="14"/>
         <v>0.57157809053044939</v>
       </c>
       <c r="E71" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F71" s="7">
-        <f>MIN($B71,$R$13/$A71)</f>
+        <f t="shared" si="15"/>
         <v>0.48729189283313651</v>
       </c>
       <c r="G71" s="8">
-        <f>MIN(C71,$R$13)</f>
+        <f t="shared" si="16"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H71" s="7">
-        <f>MIN($B71,$R$20/$A71)</f>
+        <f t="shared" si="17"/>
         <v>0.2957135881635799</v>
       </c>
       <c r="I71" s="8">
-        <f>MIN(C71,$R$20)</f>
+        <f t="shared" si="18"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="10">
         <f>Comparison!I33</f>
         <v>404.46350428265237</v>
@@ -13248,35 +13198,35 @@
         <v>0.76555074380390942</v>
       </c>
       <c r="C72" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>309.63733654512021</v>
       </c>
       <c r="D72" s="7">
-        <f>MIN($B72,$R$5/$A72)</f>
+        <f t="shared" si="14"/>
         <v>0.57019929078555576</v>
       </c>
       <c r="E72" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F72" s="7">
-        <f>MIN($B72,$R$13/$A72)</f>
+        <f t="shared" si="15"/>
         <v>0.48611641401640376</v>
       </c>
       <c r="G72" s="8">
-        <f>MIN(C72,$R$13)</f>
+        <f t="shared" si="16"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H72" s="7">
-        <f>MIN($B72,$R$20/$A72)</f>
+        <f t="shared" si="17"/>
         <v>0.29500024763028004</v>
       </c>
       <c r="I72" s="8">
-        <f>MIN(C72,$R$20)</f>
+        <f t="shared" si="18"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="10">
         <f>Comparison!I34</f>
         <v>404.46350428265237</v>
@@ -13286,35 +13236,35 @@
         <v>0.5888131545411629</v>
       </c>
       <c r="C73" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>238.1534318534417</v>
       </c>
       <c r="D73" s="7">
-        <f>MIN($B73,$R$5/$A73)</f>
+        <f t="shared" si="14"/>
         <v>0.57019929078555576</v>
       </c>
       <c r="E73" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>230.62480329060898</v>
       </c>
       <c r="F73" s="7">
-        <f>MIN($B73,$R$13/$A73)</f>
+        <f t="shared" si="15"/>
         <v>0.48611641401640376</v>
       </c>
       <c r="G73" s="8">
-        <f>MIN(C73,$R$13)</f>
+        <f t="shared" si="16"/>
         <v>196.61634830239134</v>
       </c>
       <c r="H73" s="7">
-        <f>MIN($B73,$R$20/$A73)</f>
+        <f t="shared" si="17"/>
         <v>0.29500024763028004</v>
       </c>
       <c r="I73" s="8">
-        <f>MIN(C73,$R$20)</f>
+        <f t="shared" si="18"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="10">
         <f>Comparison!I35</f>
         <v>404.46350428265237</v>
@@ -13324,35 +13274,35 @@
         <v>0.45287779257846456</v>
       </c>
       <c r="C74" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>183.17253899807795</v>
       </c>
       <c r="D74" s="7">
-        <f>MIN($B74,$R$5/$A74)</f>
+        <f t="shared" si="14"/>
         <v>0.45287779257846456</v>
       </c>
       <c r="E74" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>183.17253899807795</v>
       </c>
       <c r="F74" s="7">
-        <f>MIN($B74,$R$13/$A74)</f>
+        <f t="shared" si="15"/>
         <v>0.45287779257846456</v>
       </c>
       <c r="G74" s="8">
-        <f>MIN(C74,$R$13)</f>
+        <f t="shared" si="16"/>
         <v>183.17253899807795</v>
       </c>
       <c r="H74" s="7">
-        <f>MIN($B74,$R$20/$A74)</f>
+        <f t="shared" si="17"/>
         <v>0.29500024763028004</v>
       </c>
       <c r="I74" s="8">
-        <f>MIN(C74,$R$20)</f>
+        <f t="shared" si="18"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="10">
         <f>Comparison!I36</f>
         <v>404.46350428265237</v>
@@ -13362,35 +13312,35 @@
         <v>0.34832492010231447</v>
       </c>
       <c r="C75" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>140.88471781355702</v>
       </c>
       <c r="D75" s="7">
-        <f>MIN($B75,$R$5/$A75)</f>
+        <f t="shared" si="14"/>
         <v>0.34832492010231447</v>
       </c>
       <c r="E75" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>140.88471781355702</v>
       </c>
       <c r="F75" s="7">
-        <f>MIN($B75,$R$13/$A75)</f>
+        <f t="shared" si="15"/>
         <v>0.34832492010231447</v>
       </c>
       <c r="G75" s="8">
-        <f>MIN(C75,$R$13)</f>
+        <f t="shared" si="16"/>
         <v>140.88471781355702</v>
       </c>
       <c r="H75" s="7">
-        <f>MIN($B75,$R$20/$A75)</f>
+        <f t="shared" si="17"/>
         <v>0.29500024763028004</v>
       </c>
       <c r="I75" s="8">
-        <f>MIN(C75,$R$20)</f>
+        <f t="shared" si="18"/>
         <v>119.31683392079327</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="10">
         <f>Comparison!I37</f>
         <v>404.46350428265237</v>
@@ -13400,35 +13350,35 @@
         <v>0.26790947128029607</v>
       </c>
       <c r="C76" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>108.35960358454116</v>
       </c>
       <c r="D76" s="7">
-        <f>MIN($B76,$R$5/$A76)</f>
+        <f t="shared" si="14"/>
         <v>0.26790947128029607</v>
       </c>
       <c r="E76" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>108.35960358454116</v>
       </c>
       <c r="F76" s="7">
-        <f>MIN($B76,$R$13/$A76)</f>
+        <f t="shared" si="15"/>
         <v>0.26790947128029607</v>
       </c>
       <c r="G76" s="8">
-        <f>MIN(C76,$R$13)</f>
+        <f t="shared" si="16"/>
         <v>108.35960358454116</v>
       </c>
       <c r="H76" s="7">
-        <f>MIN($B76,$R$20/$A76)</f>
+        <f t="shared" si="17"/>
         <v>0.26790947128029607</v>
       </c>
       <c r="I76" s="8">
-        <f>MIN(C76,$R$20)</f>
+        <f t="shared" si="18"/>
         <v>108.35960358454116</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="10">
         <f>Comparison!I38</f>
         <v>404.46350428265237</v>
@@ -13438,35 +13388,35 @@
         <v>0.20605900025931193</v>
       </c>
       <c r="C77" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>83.343345333861279</v>
       </c>
       <c r="D77" s="7">
-        <f>MIN($B77,$R$5/$A77)</f>
+        <f t="shared" si="14"/>
         <v>0.20605900025931193</v>
       </c>
       <c r="E77" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>83.343345333861279</v>
       </c>
       <c r="F77" s="7">
-        <f>MIN($B77,$R$13/$A77)</f>
+        <f t="shared" si="15"/>
         <v>0.20605900025931193</v>
       </c>
       <c r="G77" s="8">
-        <f>MIN(C77,$R$13)</f>
+        <f t="shared" si="16"/>
         <v>83.343345333861279</v>
       </c>
       <c r="H77" s="7">
-        <f>MIN($B77,$R$20/$A77)</f>
+        <f t="shared" si="17"/>
         <v>0.20605900025931193</v>
       </c>
       <c r="I77" s="8">
-        <f>MIN(C77,$R$20)</f>
+        <f t="shared" si="18"/>
         <v>83.343345333861279</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="10">
         <f>Comparison!I39</f>
         <v>404.46350428265237</v>
@@ -13476,35 +13426,35 @@
         <v>0.15848753455768561</v>
       </c>
       <c r="C78" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>64.102423612319484</v>
       </c>
       <c r="D78" s="7">
-        <f>MIN($B78,$R$5/$A78)</f>
+        <f t="shared" si="14"/>
         <v>0.15848753455768561</v>
       </c>
       <c r="E78" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>64.102423612319484</v>
       </c>
       <c r="F78" s="7">
-        <f>MIN($B78,$R$13/$A78)</f>
+        <f t="shared" si="15"/>
         <v>0.15848753455768561</v>
       </c>
       <c r="G78" s="8">
-        <f>MIN(C78,$R$13)</f>
+        <f t="shared" si="16"/>
         <v>64.102423612319484</v>
       </c>
       <c r="H78" s="7">
-        <f>MIN($B78,$R$20/$A78)</f>
+        <f t="shared" si="17"/>
         <v>0.15848753455768561</v>
       </c>
       <c r="I78" s="8">
-        <f>MIN(C78,$R$20)</f>
+        <f t="shared" si="18"/>
         <v>64.102423612319484</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="10">
         <f>Comparison!I40</f>
         <v>403.96527941484601</v>
@@ -13514,35 +13464,35 @@
         <v>0.11556795843393974</v>
       </c>
       <c r="C79" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>46.685442620169781</v>
       </c>
       <c r="D79" s="7">
-        <f>MIN($B79,$R$5/$A79)</f>
+        <f t="shared" si="14"/>
         <v>0.11556795843393974</v>
       </c>
       <c r="E79" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>46.685442620169781</v>
       </c>
       <c r="F79" s="7">
-        <f>MIN($B79,$R$13/$A79)</f>
+        <f t="shared" si="15"/>
         <v>0.11556795843393974</v>
       </c>
       <c r="G79" s="8">
-        <f>MIN(C79,$R$13)</f>
+        <f t="shared" si="16"/>
         <v>46.685442620169781</v>
       </c>
       <c r="H79" s="7">
-        <f>MIN($B79,$R$20/$A79)</f>
+        <f t="shared" si="17"/>
         <v>0.11556795843393974</v>
       </c>
       <c r="I79" s="8">
-        <f>MIN(C79,$R$20)</f>
+        <f t="shared" si="18"/>
         <v>46.685442620169781</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="7"/>
       <c r="C80" s="8"/>
       <c r="D80" s="7"/>
@@ -13552,7 +13502,7 @@
       <c r="H80" s="7"/>
       <c r="I80" s="8"/>
     </row>
-    <row r="81" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="7"/>
       <c r="C81" s="8"/>
       <c r="D81" s="7"/>
@@ -13562,7 +13512,7 @@
       <c r="H81" s="7"/>
       <c r="I81" s="8"/>
     </row>
-    <row r="82" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="7"/>
       <c r="C82" s="8"/>
       <c r="D82" s="7"/>
@@ -13572,7 +13522,7 @@
       <c r="H82" s="7"/>
       <c r="I82" s="8"/>
     </row>
-    <row r="83" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="7"/>
       <c r="C83" s="8"/>
       <c r="D83" s="7"/>
@@ -13582,7 +13532,7 @@
       <c r="H83" s="7"/>
       <c r="I83" s="8"/>
     </row>
-    <row r="84" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="7"/>
       <c r="C84" s="8"/>
       <c r="D84" s="7"/>
@@ -13592,7 +13542,7 @@
       <c r="H84" s="7"/>
       <c r="I84" s="8"/>
     </row>
-    <row r="85" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="7"/>
       <c r="C85" s="8"/>
       <c r="D85" s="7"/>
@@ -13602,7 +13552,7 @@
       <c r="H85" s="7"/>
       <c r="I85" s="8"/>
     </row>
-    <row r="86" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="7"/>
       <c r="C86" s="8"/>
       <c r="D86" s="7"/>
@@ -13612,7 +13562,7 @@
       <c r="H86" s="7"/>
       <c r="I86" s="8"/>
     </row>
-    <row r="87" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="7"/>
       <c r="C87" s="8"/>
       <c r="D87" s="7"/>
@@ -13622,7 +13572,7 @@
       <c r="H87" s="7"/>
       <c r="I87" s="8"/>
     </row>
-    <row r="88" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="7"/>
       <c r="C88" s="8"/>
       <c r="D88" s="7"/>
@@ -13632,7 +13582,7 @@
       <c r="H88" s="7"/>
       <c r="I88" s="8"/>
     </row>
-    <row r="89" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="7"/>
       <c r="C89" s="8"/>
       <c r="D89" s="7"/>
@@ -13642,7 +13592,7 @@
       <c r="H89" s="7"/>
       <c r="I89" s="8"/>
     </row>
-    <row r="90" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="7"/>
       <c r="C90" s="8"/>
       <c r="D90" s="7"/>
@@ -13652,7 +13602,7 @@
       <c r="H90" s="7"/>
       <c r="I90" s="8"/>
     </row>
-    <row r="91" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="7"/>
       <c r="C91" s="8"/>
       <c r="D91" s="7"/>
@@ -13662,7 +13612,7 @@
       <c r="H91" s="7"/>
       <c r="I91" s="8"/>
     </row>
-    <row r="92" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="7"/>
       <c r="C92" s="8"/>
       <c r="D92" s="7"/>
@@ -13672,7 +13622,7 @@
       <c r="H92" s="7"/>
       <c r="I92" s="8"/>
     </row>
-    <row r="93" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="7"/>
       <c r="C93" s="8"/>
       <c r="D93" s="7"/>
@@ -13682,10 +13632,10 @@
       <c r="H93" s="7"/>
       <c r="I93" s="8"/>
     </row>
-    <row r="94" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A94" s="12"/>
       <c r="B94" s="11"/>
-      <c r="C94" s="22"/>
+      <c r="C94" s="20"/>
       <c r="D94" s="7"/>
       <c r="E94" s="8"/>
       <c r="F94" s="7"/>
@@ -13693,7 +13643,7 @@
       <c r="H94" s="7"/>
       <c r="I94" s="8"/>
     </row>
-    <row r="95" spans="1:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="F95" s="7"/>
     </row>
   </sheetData>
@@ -13716,16 +13666,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03B1C64-1EDE-4391-8412-792EB47F68EE}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="12.7109375" style="15"/>
+    <col min="1" max="16384" width="12.73046875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D1" s="15" t="s">
         <v>32</v>
       </c>
@@ -13739,7 +13689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>36</v>
       </c>
@@ -13765,7 +13715,7 @@
         <v>3.1080031080031083E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
@@ -13791,7 +13741,7 @@
         <v>8.0080080080080093E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
         <v>36</v>
       </c>
@@ -13817,7 +13767,7 @@
         <v>7.9365079365079361E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>36</v>
       </c>
